--- a/dds_compiler_units.xlsx
+++ b/dds_compiler_units.xlsx
@@ -437,7 +437,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dds_compiler_units.xlsx
+++ b/dds_compiler_units.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -25,9 +25,6 @@
     <t>binary inc</t>
   </si>
   <si>
-    <t>actual freqnecy</t>
-  </si>
-  <si>
     <t>dds_0_0</t>
   </si>
   <si>
@@ -92,12 +89,24 @@
   </si>
   <si>
     <t>dds_7_2</t>
+  </si>
+  <si>
+    <t>actual freqnecy [MHz]</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>diff ppm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.000000000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,9 +136,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,18 +455,19 @@
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -465,12 +476,18 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
       </c>
       <c r="B2">
         <v>1.125</v>
@@ -484,10 +501,21 @@
       <c r="E2" s="1">
         <v>11000000000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="2">
+        <v>1.125</v>
+      </c>
+      <c r="G2" s="2">
+        <f>F2-B2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>(G2/B2)*1000000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>1.375</v>
@@ -501,10 +529,21 @@
       <c r="E3" s="1">
         <v>11101010101011</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <v>1.3750305175781199</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G24" si="0">F3-B3</f>
+        <v>3.0517578119892974E-5</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H23" si="1">(G3/B3)*1000000</f>
+        <v>22.194602269013071</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>1.625</v>
@@ -518,10 +557,21 @@
       <c r="E4" s="1">
         <v>100010101010101</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="2">
+        <v>1.6249694824218699</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.0517578130107026E-5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>-18.78004808006586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1.875</v>
@@ -535,10 +585,25 @@
       <c r="E5" s="1">
         <v>101000000000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0.125</v>
@@ -552,10 +617,21 @@
       <c r="E7" s="1">
         <v>111111111111111</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="2">
+        <v>0.124996185302734</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.8146972659997003E-6</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>-30.517578127997602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>3.125E-2</v>
@@ -569,10 +645,21 @@
       <c r="E8" s="1">
         <v>10000000000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="2">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>6.25E-2</v>
@@ -586,10 +673,21 @@
       <c r="E9" s="1">
         <v>100000000000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>9.375E-2</v>
@@ -603,10 +701,25 @@
       <c r="E10" s="1">
         <v>110000000000000</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="2">
+        <v>9.375E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>0.375</v>
@@ -620,10 +733,21 @@
       <c r="E12" s="1">
         <v>1000000000000</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>0.34375</v>
@@ -637,10 +761,21 @@
       <c r="E13" s="1">
         <v>111010101011</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="2">
+        <v>0.343780517578125</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0517578125E-5</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>88.778409090909093</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>0.3125</v>
@@ -654,10 +789,21 @@
       <c r="E14" s="1">
         <v>110101010101</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="2">
+        <v>0.312469482421875</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.0517578125E-5</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>-97.65625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0.28125</v>
@@ -671,10 +817,21 @@
       <c r="E15" s="1">
         <v>110000000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="2">
+        <v>0.28125</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>0.25</v>
@@ -688,10 +845,21 @@
       <c r="E16" s="1">
         <v>101010101011</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="2">
+        <v>0.250030517578125</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0517578125E-5</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>122.0703125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0.21875</v>
@@ -705,10 +873,21 @@
       <c r="E17" s="1">
         <v>100101010101</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="2">
+        <v>0.218719482421875</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.0517578125E-5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>-139.50892857142856</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0.1875</v>
@@ -722,10 +901,21 @@
       <c r="E18" s="1">
         <v>100000000000</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>0.1875</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0.15625</v>
@@ -739,10 +929,24 @@
       <c r="E19" s="1">
         <v>11010101011</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="2">
+        <v>0.156280517578125</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0517578125E-5</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>195.3125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>0.875</v>
@@ -756,10 +960,21 @@
       <c r="E21" s="1">
         <v>10010101010101</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="2">
+        <v>0.874969482421875</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.0517578125E-5</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>-34.877232142857139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22">
         <v>1.125</v>
@@ -773,10 +988,21 @@
       <c r="E22" s="1">
         <v>11000000000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>1.125</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23">
         <v>1.375</v>
@@ -790,10 +1016,21 @@
       <c r="E23" s="1">
         <v>11101010101011</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="2">
+        <v>1.3750305175781199</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0517578119892974E-5</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>22.194602269013071</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24">
         <v>1.625</v>
@@ -806,6 +1043,17 @@
       </c>
       <c r="E24" s="1">
         <v>100010101010101</v>
+      </c>
+      <c r="F24">
+        <v>1.6249694824218699</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.0517578130107026E-5</v>
+      </c>
+      <c r="H24">
+        <f>(G24/B24)*1000000</f>
+        <v>-18.78004808006586</v>
       </c>
     </row>
   </sheetData>

--- a/dds_compiler_units.xlsx
+++ b/dds_compiler_units.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>diff ppm</t>
+  </si>
+  <si>
+    <t>NEW:</t>
   </si>
 </sst>
 </file>
@@ -105,10 +108,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -136,10 +147,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,6 +1068,385 @@
         <v>-18.78004808006586</v>
       </c>
     </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>1.125</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>1.375</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>1.625</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>1.875</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>0.125</v>
+      </c>
+      <c r="C34">
+        <v>0.25</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C35">
+        <v>0.25</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C36">
+        <v>0.25</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C37">
+        <v>0.25</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>0.375</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>0.34375</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>0.3125</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>0.28125</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>0.25</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>20</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>0.21875</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>20</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>0.1875</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>0.15625</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <v>0.875</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49">
+        <v>1.125</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>20</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50">
+        <v>1.375</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>20</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51">
+        <v>1.625</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="G51" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
